--- a/municipal/ENG/Main Information/Administrative structure/Administrative structure of Georgia.xlsx
+++ b/municipal/ENG/Main Information/Administrative structure/Administrative structure of Georgia.xlsx
@@ -5,14 +5,14 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tgrigolishvili\Desktop\Administrative structure\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gamashukeli\Desktop\Administrative structure\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="13440" windowHeight="9960"/>
   </bookViews>
   <sheets>
-    <sheet name="1" sheetId="1" r:id="rId1"/>
+    <sheet name="A.S.G." sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -744,9 +744,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -785,6 +782,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1075,59 +1075,59 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="37.140625" style="15" customWidth="1"/>
+    <col min="1" max="1" width="37.140625" style="14" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" style="11" customWidth="1"/>
     <col min="3" max="3" width="17" style="12" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" style="12" customWidth="1"/>
     <col min="5" max="5" width="7.28515625" style="12" customWidth="1"/>
     <col min="6" max="6" width="18.140625" style="12" customWidth="1"/>
     <col min="7" max="7" width="8.85546875" style="12" customWidth="1"/>
-    <col min="8" max="11" width="18.7109375" style="14" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" style="14"/>
+    <col min="8" max="11" width="18.7109375" style="13" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="30" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-    </row>
-    <row r="2" spans="1:7" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="15" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" s="16"/>
-    </row>
-    <row r="3" spans="1:7" s="20" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+    </row>
+    <row r="2" spans="1:7" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" s="19" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="19" t="s">
+      <c r="B3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="E3" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="19" t="s">
+      <c r="F3" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="G3" s="19" t="s">
+      <c r="G3" s="18" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="17" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="21" t="s">
+    <row r="4" spans="1:7" s="16" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="20" t="s">
         <v>9</v>
       </c>
       <c r="B4" s="1">
@@ -1149,8 +1149,8 @@
         <v>4614</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="17" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+    <row r="5" spans="1:7" s="16" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -1171,7 +1171,7 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="22" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -1186,7 +1186,7 @@
       <c r="G6" s="4"/>
     </row>
     <row r="7" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24" t="s">
+      <c r="A7" s="23" t="s">
         <v>14</v>
       </c>
       <c r="B7" s="5"/>
@@ -1197,7 +1197,7 @@
       <c r="G7" s="4"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="25" t="s">
+      <c r="A8" s="24" t="s">
         <v>15</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1216,7 +1216,7 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1229,7 +1229,7 @@
       <c r="G9" s="7"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="24" t="s">
         <v>19</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1248,7 +1248,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="25" t="s">
+      <c r="A11" s="24" t="s">
         <v>21</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1261,7 +1261,7 @@
       <c r="G11" s="7"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="24" t="s">
         <v>23</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1278,7 +1278,7 @@
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
+      <c r="A13" s="24" t="s">
         <v>25</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1297,7 +1297,7 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25" t="s">
+      <c r="A14" s="24" t="s">
         <v>27</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1310,7 +1310,7 @@
       <c r="G14" s="7"/>
     </row>
     <row r="15" spans="1:7" ht="13.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25" t="s">
+      <c r="A15" s="24" t="s">
         <v>29</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1327,7 +1327,7 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="25" t="s">
+      <c r="A16" s="24" t="s">
         <v>31</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -1346,7 +1346,7 @@
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>33</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1358,7 +1358,7 @@
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
     </row>
-    <row r="18" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1435,7 +1435,7 @@
       <c r="G21" s="7">
         <v>48</v>
       </c>
-      <c r="H21" s="26"/>
+      <c r="H21" s="25"/>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="7" t="s">
@@ -1492,8 +1492,8 @@
         <v>83</v>
       </c>
     </row>
-    <row r="25" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A25" s="27" t="s">
+    <row r="25" spans="1:8" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A25" s="26" t="s">
         <v>49</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -1516,7 +1516,7 @@
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A26" s="25" t="s">
+      <c r="A26" s="24" t="s">
         <v>51</v>
       </c>
       <c r="B26" s="8" t="s">
@@ -1587,8 +1587,8 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:8" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A30" s="26" t="s">
         <v>59</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -1611,7 +1611,7 @@
       </c>
     </row>
     <row r="31" spans="1:8" ht="16.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>61</v>
       </c>
       <c r="B31" s="8" t="s">
@@ -1626,7 +1626,7 @@
       <c r="G31" s="7"/>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A32" s="28" t="s">
+      <c r="A32" s="27" t="s">
         <v>63</v>
       </c>
       <c r="B32" s="8" t="s">
@@ -1645,7 +1645,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="28" t="s">
+      <c r="A33" s="27" t="s">
         <v>65</v>
       </c>
       <c r="B33" s="8" t="s">
@@ -1664,7 +1664,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="28" t="s">
+      <c r="A34" s="27" t="s">
         <v>67</v>
       </c>
       <c r="B34" s="8" t="s">
@@ -1685,7 +1685,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="28" t="s">
+      <c r="A35" s="27" t="s">
         <v>69</v>
       </c>
       <c r="B35" s="8" t="s">
@@ -1704,7 +1704,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="28" t="s">
+      <c r="A36" s="27" t="s">
         <v>71</v>
       </c>
       <c r="B36" s="8" t="s">
@@ -1725,7 +1725,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="28" t="s">
+      <c r="A37" s="27" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="8" t="s">
@@ -1744,7 +1744,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="27" t="s">
         <v>75</v>
       </c>
       <c r="B38" s="8" t="s">
@@ -1763,7 +1763,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="27" t="s">
         <v>77</v>
       </c>
       <c r="B39" s="8" t="s">
@@ -1782,7 +1782,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="27" t="s">
         <v>79</v>
       </c>
       <c r="B40" s="8" t="s">
@@ -1801,7 +1801,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>81</v>
       </c>
       <c r="B41" s="8" t="s">
@@ -1820,7 +1820,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="27" t="s">
         <v>83</v>
       </c>
       <c r="B42" s="8" t="s">
@@ -1838,7 +1838,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:7" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>85</v>
       </c>
@@ -1862,7 +1862,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="25" t="s">
+      <c r="A44" s="24" t="s">
         <v>87</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -2026,7 +2026,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="53" spans="1:7" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:7" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>104</v>
       </c>
@@ -2050,7 +2050,7 @@
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A54" s="25" t="s">
+      <c r="A54" s="24" t="s">
         <v>106</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -2063,7 +2063,7 @@
       <c r="G54" s="9"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A55" s="29" t="s">
+      <c r="A55" s="28" t="s">
         <v>108</v>
       </c>
       <c r="B55" s="8" t="s">
@@ -2084,7 +2084,7 @@
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A56" s="29" t="s">
+      <c r="A56" s="28" t="s">
         <v>110</v>
       </c>
       <c r="B56" s="8" t="s">
@@ -2103,7 +2103,7 @@
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A57" s="29" t="s">
+      <c r="A57" s="28" t="s">
         <v>112</v>
       </c>
       <c r="B57" s="8" t="s">
@@ -2122,7 +2122,7 @@
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A58" s="29" t="s">
+      <c r="A58" s="28" t="s">
         <v>114</v>
       </c>
       <c r="B58" s="8" t="s">
@@ -2140,7 +2140,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="59" spans="1:7" s="17" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:7" s="16" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>116</v>
       </c>
@@ -2164,7 +2164,7 @@
       </c>
     </row>
     <row r="60" spans="1:7" ht="16.899999999999999" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A60" s="25" t="s">
+      <c r="A60" s="24" t="s">
         <v>118</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -2177,7 +2177,7 @@
       <c r="G60" s="9"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A61" s="29" t="s">
+      <c r="A61" s="28" t="s">
         <v>120</v>
       </c>
       <c r="B61" s="8" t="s">
@@ -2196,7 +2196,7 @@
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A62" s="29" t="s">
+      <c r="A62" s="28" t="s">
         <v>122</v>
       </c>
       <c r="B62" s="8" t="s">
@@ -2215,7 +2215,7 @@
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A63" s="29" t="s">
+      <c r="A63" s="28" t="s">
         <v>124</v>
       </c>
       <c r="B63" s="8" t="s">
@@ -2234,7 +2234,7 @@
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A64" s="29" t="s">
+      <c r="A64" s="28" t="s">
         <v>126</v>
       </c>
       <c r="B64" s="8" t="s">
@@ -2252,7 +2252,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="65" spans="1:7" s="17" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:7" s="16" customFormat="1" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>128</v>
       </c>
@@ -2276,7 +2276,7 @@
       </c>
     </row>
     <row r="66" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A66" s="25" t="s">
+      <c r="A66" s="24" t="s">
         <v>130</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -2304,7 +2304,7 @@
       <c r="G67" s="7"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="29" t="s">
+      <c r="A68" s="28" t="s">
         <v>134</v>
       </c>
       <c r="B68" s="8" t="s">
@@ -2323,7 +2323,7 @@
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A69" s="29" t="s">
+      <c r="A69" s="28" t="s">
         <v>136</v>
       </c>
       <c r="B69" s="8" t="s">
@@ -2342,7 +2342,7 @@
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A70" s="29" t="s">
+      <c r="A70" s="28" t="s">
         <v>138</v>
       </c>
       <c r="B70" s="8" t="s">
@@ -2361,7 +2361,7 @@
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A71" s="29" t="s">
+      <c r="A71" s="28" t="s">
         <v>140</v>
       </c>
       <c r="B71" s="8" t="s">
@@ -2380,7 +2380,7 @@
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A72" s="29" t="s">
+      <c r="A72" s="28" t="s">
         <v>142</v>
       </c>
       <c r="B72" s="8" t="s">
@@ -2399,7 +2399,7 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A73" s="29" t="s">
+      <c r="A73" s="28" t="s">
         <v>144</v>
       </c>
       <c r="B73" s="8" t="s">
@@ -2418,7 +2418,7 @@
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A74" s="29" t="s">
+      <c r="A74" s="28" t="s">
         <v>146</v>
       </c>
       <c r="B74" s="8" t="s">
@@ -2437,7 +2437,7 @@
       </c>
     </row>
     <row r="75" spans="1:7" ht="14.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A75" s="29" t="s">
+      <c r="A75" s="28" t="s">
         <v>148</v>
       </c>
       <c r="B75" s="8" t="s">
@@ -2455,7 +2455,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:7" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>150</v>
       </c>
@@ -2479,7 +2479,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A77" s="25" t="s">
+      <c r="A77" s="24" t="s">
         <v>152</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -2607,7 +2607,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="84" spans="1:7" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:7" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>166</v>
       </c>
@@ -2631,7 +2631,7 @@
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A85" s="28" t="s">
+      <c r="A85" s="27" t="s">
         <v>168</v>
       </c>
       <c r="B85" s="8" t="s">
@@ -2646,7 +2646,7 @@
       <c r="G85" s="7"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A86" s="28" t="s">
+      <c r="A86" s="27" t="s">
         <v>170</v>
       </c>
       <c r="B86" s="8" t="s">
@@ -2667,7 +2667,7 @@
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A87" s="28" t="s">
+      <c r="A87" s="27" t="s">
         <v>172</v>
       </c>
       <c r="B87" s="8" t="s">
@@ -2686,7 +2686,7 @@
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A88" s="28" t="s">
+      <c r="A88" s="27" t="s">
         <v>174</v>
       </c>
       <c r="B88" s="8" t="s">
@@ -2705,7 +2705,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A89" s="28" t="s">
+      <c r="A89" s="27" t="s">
         <v>195</v>
       </c>
       <c r="B89" s="8" t="s">
@@ -2726,7 +2726,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A90" s="28" t="s">
+      <c r="A90" s="27" t="s">
         <v>177</v>
       </c>
       <c r="B90" s="8" t="s">
@@ -2745,7 +2745,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A91" s="28" t="s">
+      <c r="A91" s="27" t="s">
         <v>179</v>
       </c>
       <c r="B91" s="8" t="s">
@@ -2765,7 +2765,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="92" spans="1:7" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:7" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
         <v>181</v>
       </c>
@@ -2789,7 +2789,7 @@
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A93" s="25" t="s">
+      <c r="A93" s="24" t="s">
         <v>183</v>
       </c>
       <c r="B93" s="8" t="s">
@@ -2821,7 +2821,7 @@
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A95" s="29" t="s">
+      <c r="A95" s="28" t="s">
         <v>187</v>
       </c>
       <c r="B95" s="8" t="s">
@@ -2840,7 +2840,7 @@
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A96" s="29" t="s">
+      <c r="A96" s="28" t="s">
         <v>189</v>
       </c>
       <c r="B96" s="8" t="s">
@@ -2881,8 +2881,8 @@
         <v>82</v>
       </c>
     </row>
-    <row r="98" spans="1:7" s="17" customFormat="1" ht="15" x14ac:dyDescent="0.25">
-      <c r="A98" s="30" t="s">
+    <row r="98" spans="1:7" s="16" customFormat="1" ht="15" x14ac:dyDescent="0.25">
+      <c r="A98" s="29" t="s">
         <v>193</v>
       </c>
       <c r="B98" s="10"/>
